--- a/spr-simple/test_items.xlsx
+++ b/spr-simple/test_items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="test_items" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">### Test items ###</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t xml:space="preserve">index</t>
   </si>
@@ -119,6 +116,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -204,188 +202,183 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="217.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="2.83673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
